--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_LapDat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhongKyThuat\2. Baocaobaohanh\Nam2020\Thang10\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang10\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NQ899" sheetId="33" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="152">
   <si>
     <t>STT</t>
   </si>
@@ -471,9 +471,6 @@
     <t>Thiết  bị không nhận sim</t>
   </si>
   <si>
-    <t>Nâng cấp khay sim, thay vỏ</t>
-  </si>
-  <si>
     <t>Thiết bị reset liện tục</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>NQ.2.00.00002.180728</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW, thay vỏ</t>
   </si>
 </sst>
 </file>
@@ -1037,6 +1037,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1086,12 +1092,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1401,7 +1401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -1433,43 +1433,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1514,58 +1514,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1590,35 +1590,35 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="98">
         <v>44131</v>
       </c>
-      <c r="C6" s="115"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="12">
         <v>863586032939336</v>
@@ -1629,13 +1629,13 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11" t="s">
@@ -1653,7 +1653,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="85"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1664,8 +1664,8 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
@@ -1684,7 +1684,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="28"/>
       <c r="U7" s="85"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="85"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="85"/>
       <c r="U9" s="85"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="85"/>
       <c r="U10" s="85"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1860,7 +1860,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="85"/>
       <c r="U13" s="85"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="85"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="85"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3181,10 +3181,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>1</v>
       </c>
@@ -3213,8 +3213,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3240,8 +3240,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4528,6 +4528,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4538,16 +4548,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4590,43 +4590,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -4671,58 +4671,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4747,33 +4747,33 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="98">
         <v>44123</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="98">
         <v>44127</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -4822,7 +4822,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="85"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4833,10 +4833,10 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="98">
         <v>44123</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="98">
         <v>44127</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4852,7 +4852,7 @@
         <v>81</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="116">
+      <c r="I7" s="99">
         <v>125212203114.16701</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -4881,7 +4881,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="85"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4890,10 +4890,10 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="98">
         <v>44125</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="98">
         <v>44127</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -4938,7 +4938,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="85"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4947,10 +4947,10 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="98">
         <v>44131</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="98">
         <v>44131</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -4968,7 +4968,7 @@
       <c r="H9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="99">
         <v>125212203114.14999</v>
       </c>
       <c r="J9" s="11" t="s">
@@ -4997,7 +4997,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="85"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5006,10 +5006,10 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="115">
+      <c r="B10" s="98">
         <v>44131</v>
       </c>
-      <c r="C10" s="115"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="11" t="s">
         <v>51</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
       <c r="U10" s="85"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5131,7 +5131,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="85"/>
       <c r="U13" s="85"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="85"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5218,7 +5218,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="85"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6452,10 +6452,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6484,8 +6484,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6511,8 +6511,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7799,6 +7799,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7809,16 +7819,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7861,43 +7861,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -7942,58 +7942,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -8018,33 +8018,33 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="98">
         <v>44125</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="98">
         <v>44127</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -8085,7 +8085,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="28"/>
       <c r="U6" s="85"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8116,7 +8116,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="85"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8145,7 +8145,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="85"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8174,7 +8174,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="85"/>
       <c r="U9" s="85"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8203,7 +8203,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="85"/>
       <c r="U10" s="85"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8292,7 +8292,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="85"/>
       <c r="U13" s="85"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8350,7 +8350,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="85"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8379,7 +8379,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="85"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9613,10 +9613,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9645,8 +9645,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9672,8 +9672,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10960,6 +10960,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10970,16 +10980,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11022,43 +11022,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -11103,58 +11103,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -11179,33 +11179,33 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="98">
         <v>44112</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="98">
         <v>44114</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -11228,11 +11228,11 @@
         <v>34</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11" t="s">
@@ -11250,7 +11250,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11261,10 +11261,10 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="98">
         <v>44123</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="98">
         <v>44127</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -11287,10 +11287,10 @@
         <v>93</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>96</v>
@@ -11311,7 +11311,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11340,7 +11340,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11369,7 +11369,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11398,7 +11398,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11427,7 +11427,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11487,7 +11487,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11516,7 +11516,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11545,7 +11545,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11574,7 +11574,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12808,10 +12808,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12840,8 +12840,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12867,8 +12867,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14155,6 +14155,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14165,16 +14175,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14217,43 +14217,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -14298,58 +14298,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -14374,33 +14374,33 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="98">
         <v>44112</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="98" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -14447,7 +14447,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14458,10 +14458,10 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="98">
         <v>44123</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="98">
         <v>44127</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -14504,7 +14504,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14513,10 +14513,10 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="98">
         <v>44123</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="98">
         <v>44127</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -14530,7 +14530,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="116">
+      <c r="I8" s="99">
         <v>125212203114.16701</v>
       </c>
       <c r="J8" s="11"/>
@@ -14559,7 +14559,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14568,10 +14568,10 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="98">
         <v>44125</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="98">
         <v>44127</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -14616,7 +14616,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14645,7 +14645,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14674,7 +14674,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14703,7 +14703,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14734,7 +14734,7 @@
       <c r="S13" s="96"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14763,7 +14763,7 @@
       <c r="S14" s="96"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14792,7 +14792,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14821,7 +14821,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16055,10 +16055,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -16087,8 +16087,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -16114,8 +16114,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -17402,6 +17402,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -17412,16 +17422,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17432,8 +17432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17464,43 +17464,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -17545,58 +17545,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -17621,33 +17621,33 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="98">
         <v>44112</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="98">
         <v>44114</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -17694,7 +17694,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -17705,10 +17705,10 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="98">
         <v>44112</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="98">
         <v>44114</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -17755,7 +17755,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -17764,10 +17764,10 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="98">
         <v>44112</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="98">
         <v>44114</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -17814,7 +17814,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -17823,10 +17823,10 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="98">
         <v>44112</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="98">
         <v>44114</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -17840,7 +17840,7 @@
         <v>81</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="116">
+      <c r="I9" s="99">
         <v>125212203114.16701</v>
       </c>
       <c r="J9" s="11" t="s">
@@ -17873,7 +17873,7 @@
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -17882,10 +17882,10 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="115">
+      <c r="B10" s="98">
         <v>44112</v>
       </c>
-      <c r="C10" s="115">
+      <c r="C10" s="98">
         <v>44114</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -17934,7 +17934,7 @@
       </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -17943,10 +17943,10 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="98">
         <v>44123</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="98">
         <v>44127</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -17995,7 +17995,7 @@
       </c>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -18004,10 +18004,10 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="98">
         <v>44123</v>
       </c>
-      <c r="C12" s="115">
+      <c r="C12" s="98">
         <v>44127</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -18065,10 +18065,10 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="115">
+      <c r="B13" s="98">
         <v>44123</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="98">
         <v>44124</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -18115,7 +18115,7 @@
       <c r="S13" s="11"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -18124,10 +18124,10 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="115">
+      <c r="B14" s="98">
         <v>44123</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="98">
         <v>44127</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -18174,7 +18174,7 @@
       </c>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -18183,10 +18183,10 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="115">
+      <c r="B15" s="98">
         <v>44131</v>
       </c>
-      <c r="C15" s="115"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="11" t="s">
         <v>46</v>
       </c>
@@ -18219,7 +18219,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -18228,10 +18228,10 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="115">
+      <c r="B16" s="98">
         <v>44131</v>
       </c>
-      <c r="C16" s="115"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>67</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="116">
+      <c r="I16" s="99">
         <v>125212203114.161</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -18266,7 +18266,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -18275,10 +18275,12 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="115">
+      <c r="B17" s="98">
         <v>44132</v>
       </c>
-      <c r="C17" s="115"/>
+      <c r="C17" s="98">
+        <v>43932</v>
+      </c>
       <c r="D17" s="11" t="s">
         <v>46</v>
       </c>
@@ -18294,7 +18296,7 @@
       <c r="H17" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I17" s="116">
+      <c r="I17" s="99">
         <v>125212203114.16701</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -18303,17 +18305,25 @@
       <c r="K17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="M17" s="11" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="O17" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="P17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="Q17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="11" t="s">
         <v>73</v>
       </c>
@@ -18326,10 +18336,12 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="115">
+      <c r="B18" s="98">
         <v>44132</v>
       </c>
-      <c r="C18" s="115"/>
+      <c r="C18" s="98">
+        <v>43932</v>
+      </c>
       <c r="D18" s="11" t="s">
         <v>46</v>
       </c>
@@ -18347,23 +18359,33 @@
         <v>114</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="M18" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="O18" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="P18" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="Q18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="T18" s="64"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
@@ -18493,7 +18515,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18898,7 +18920,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18962,7 +18984,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19544,10 +19566,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -19576,8 +19598,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -19603,8 +19625,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -20891,6 +20913,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -20901,16 +20933,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20953,43 +20975,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -21034,58 +21056,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -21110,24 +21132,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -21153,7 +21175,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -21184,7 +21206,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -21213,7 +21235,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -21242,7 +21264,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -21271,7 +21293,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -21300,7 +21322,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -21329,7 +21351,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -21360,7 +21382,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -21389,7 +21411,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -21418,7 +21440,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -21447,7 +21469,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -22681,10 +22703,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -22713,8 +22735,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -22740,8 +22762,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -24028,6 +24050,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -24038,16 +24070,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
